--- a/graph_adjacency_matrices.xlsx
+++ b/graph_adjacency_matrices.xlsx
@@ -467,16 +467,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +484,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -620,19 +620,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -643,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -762,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -892,19 +892,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -912,19 +912,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -932,13 +932,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1436,16 +1436,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1456,16 +1456,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
